--- a/finetuning/it_datasets/it_dataset/it_metlaoui_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_metlaoui_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a great Cafe, check out Caffe Del Sogno located at Rue metlaoui, Al-Mitlawi 2130. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 34.32081, 8.40157. For more details, call them at 76 241 820.</t>
+          <t>Caffe Del Sogno is a highly-rated cafe located on Rue metlaoui in Al-Mitlawi, Tunisia. It offers a variety of services, including coffee, tea, and pastries. The cafe is open from 06:00 to 22:00 daily and is closed on . Caffe Del Sogno is conveniently located near public transportation, making it easy to get to and from.</t>
         </is>
       </c>
     </row>
@@ -745,9 +745,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for something fun to do, check out Pizzeria Oggi Metlaoui. 
-This top-rated Pizzeria is a perfect spot for Pizzeria lovers. 
-With a rating of 5.0, it's a must-visit spot. It's located at 8C82+HR6 Pizzeria Oggi Metlaoui, Rue de president, Al-Mitlawi 2130. To get there, use these GPS coordinates: 34.324025, 8.4049359. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+Oggi+Metlaoui/data=!4m7!3m6!1s0x12f87d9f7bade1e3:0xbb966d466fac5337!8m2!3d34.3164005!4d8.4020102!16s%2Fg%2F11rcxgxz9m!19sChIJ4-Gte599-BIRN1Osb0Ztlrs?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Pizzeria Oggi Metlaoui is a highly-rated pizzeria located in Metlaoui, Tunisia. This establishment specializes in authentic Italian cuisine, delighting customers with its delectable pizzas. Situated at (34.324025, 8.4049359), Pizzeria Oggi Metlaoui is a prime destination for food enthusiasts in the area.</t>
         </is>
       </c>
     </row>
@@ -846,7 +844,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a great Pizzeria, check out Valhala-metlaoui pizza and fast food located at 898X+9Q9 Valhala-metlaoui pizza and fast food, P3, Al-Mitlawi. This top-rated destination is perfect for Pizzeria lovers and has a rating of 4.0. For more details, visit their website or call them at 22 029 674.</t>
+          <t>Valhala-metlaoui pizza and fast food is a Pizzeria located in Al-Mitlawi, Metlaoui. It offers pizzas and fast food options, and is rated 4.0 based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -941,7 +939,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a top-rated pizzeria, check out Luciana Metlaoui at 8C75+X88, Al-Mitlawi. This highly-rated destination with a 5.0 rating offers a range of pizza options to choose from. For more details, visit their website at https://www.google.com/maps/place/Luciana+Metlaoui/data=!4m7!3m6!1s0x12f87d0d3884b617:0xb07ba0e23ca7558c!8m2!3d34.3150158!4d8.4075516!16s%2Fg%2F11smcsy2s1!19sChIJF7aEOA19-BIRjFWnPOKge7A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [phone_number].</t>
+          <t>Luciana Metlaoui is a pizzeria located in Al-Mitlawi, Tunisia at (34.32081, 8.40157). It has a 5.0-star rating and one review. The pizzeria's featured image showcases a photo of its establishment.</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1030,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a top-rated Cafe, check out Bardola cafe located at 8CF4+FH3 Bardola cafe, Rue metlaoui, Denden 2011. Boasting a rating of 5.0, this popular spot offers a range of categories to choose from. To get there, use these GPS coordinates: 36.807046798899, 10.106123271448. For more details, visit their website at https://www.google.com/maps/place/Bardola+cafe/data=!4m7!3m6!1s0x12f87c0e1610f721:0xc65a43c568e9060e!8m2!3d34.323648!4d8.4064204!16s%2Fg%2F11c2pp9f62!19sChIJIfcQFg58-BIRDgbpaMVDWsY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Bardola cafe is a cafe located in Rue metlaoui, Denden 2011 Tunisia, it has only one review but with 5 stars ! Sadly we do not have further information about Bardola cafe (hours, phone number, website, featured image)</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1121,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a top-notch Pizzeria, visit Pizzeria Oggi Metlaoui located at 8C82+HR6 Pizzeria Oggi Metlaoui, Rue de president, Al-Mitlawi 2130. With a remarkable rating of 5.0 based on 2 reviews, this Pizzeria is a must-try. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+Oggi+Metlaoui/data=!4m7!3m6!1s0x12f87d9f7bade1e3:0xbb966d466fac5337!8m2!3d34.3164005!4d8.4020102!16s%2Fg%2F11rcxgxz9m!19sChIJ4-Gte599-BIRN1Osb0Ztlrs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Pizzeria Oggi Metlaoui is a pizzeria located in Metlaoui, Tunisia. It is rated 5.0 based on 2 reviews. The pizzeria is located at 8C82+HR6 Pizzeria Oggi Metlaoui, Rue de president, Al-Mitlawi 2130.</t>
         </is>
       </c>
     </row>
@@ -1222,9 +1220,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for something fun to do, check out Valhala-metlaoui pizza and fast food located at 898X+9Q9 Valhala-metlaoui pizza and fast food, P3, Al-Mitlawi. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.32081, 8.40157. For more details, visit them at https://www.google.com/maps/place/Valhala-metlaoui+pizza+and+fast+food/data=!4m7!3m6!1s0x12f87d82cc5f79af:0x417ee1fd3f04ec06!8m2!3d34.3159091!4d8.3994891!16s%2Fg%2F11nx_9gspr!19sChIJr3lfzIJ9-BIRBuwEP_3hfkE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 029 674.</t>
+          <t>Valhala-metlaoui pizza and fast food is a pizzeria located at 898X+9Q9 Valhala-metlaoui pizza and fast food, P3, Al-Mitlawi, metlaoui. The restaurant offers a variety of pizzas as well as other fast food options. It has a rating of 4 out of 5 stars from two reviews. The coordinates of the restaurant are (34.32081, 8.40157).</t>
         </is>
       </c>
     </row>
@@ -1319,9 +1315,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a Pizzeria, check out Luciana Metlaoui located at 8C75+X88 Luciana Metlaoui, Al-Mitlawi. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Luciana+Metlaoui/data=!4m7!3m6!1s0x12f87d0d3884b617:0xb07ba0e23ca7558c!8m2!3d34.3150158!4d8.4075516!16s%2Fg%2F11smcsy2s1!19sChIJF7aEOA19-BIRjFWnPOKge7A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Luciana Metlaoui is a Pizzeria located in metlaoui, Tunisia. It is rated 5.0 out of 5 stars based on 1 review. The Pizzeria is owned by Luciana Metlaoui (proprietaire). Its coordinates are (34.32081, 8.40157).</t>
         </is>
       </c>
     </row>
@@ -1416,8 +1410,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a reliable taxi station, check out Station Des Louages Metlaoui at 
-8C76+V59 Station Des Louages Metlaoui, Al-Mitlawi. This top-rated destination is perfect for taxi lovers and offers a range of services to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 34.32081, 8.40157. For more details, visit their website at https://www.google.com/maps/place/Station+Des+Louages+Metlaoui/data=!4m7!3m6!1s0x12f87c1b9c197203:0x5de1d0b1650636f6!8m2!3d34.3146502!4d8.4104727!16s%2Fg%2F11c1r76jm6!19sChIJA3IZnBt8-BIR9jYGZbHQ4V0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located in the heart of Metlaoui, the Station Des Louages Metlaoui is a bustling transportation hub. It is the perfect place to connect with local transportation, offering a range of services to meet your needs. Situated at the coordinates (34.32081, 8.40157), the station is well-connected with its surroundings, making it easy to get around the city. With a rating of 4.5, the Station Des Louages Metlaoui is a highly-regarded transportation provider, offering safe, reliable, and efficient services to the community.</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1513,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a mode of transport, check out Gare Du Metlaoui located at 8C88+4M3 Gare Du Metlaoui, Al-Mitlawi. This top-rated destination is perfect for Compagnie ferroviaire metropolitaine lovers and is open 24 hours a day. With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 34.30807, 8.42028. For more details, visit their website at https://www.google.com/maps/place/Gare+Du+Metlaoui/data=!4m7!3m6!1s0x12f87c18ee0341f1:0xf00656d2b01a0f8!8m2!3d34.3152694!4d8.4166713!16s%2Fg%2F11fxy8tpkq!19sChIJ8UED7hh8-BIR-KABK21lAA8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 76 241 059.</t>
+          <t>The Gare Du Metlaoui is a train station located in Al-Mitlawi, Tunisia. It offers 24-hour service and is rated 3.8 out of 5 stars based on 10 reviews. The station features a featured image showcasing its exterior and provides contact information, including a phone number and address.</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1608,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a reliable taxi station, Station Des Louages Metlaoui located at 8C76+V59 Station Des Louages Metlaoui, Al-Mitlawi is a top-rated choice. With a rating of 4.5, it's a must-visit spot for those seeking convenient transportation services. For more details, visit their website or call them at the provided contact information.</t>
+          <t>Station Des Louages Metlaoui is a taxi station located in Al-Mitlawi, Tunisia. The station is rated 4.5 stars on Google and offers a convenient way to get around the area. It is located at coordinates (34.32081, 8.40157) and can be found on Google Maps at https://www.google.com/maps/place/Station+Des+Louages+Metlaoui/data=!4m7!3m6!1s0x12f87c1b9c197203:0x5de1d0b1650636f6!8m2!3d34.3146502!4d8.4104727!16s%2Fg%2F11c1r76jm6!19sChIJA3IZnBt8-BIR9jYGZbHQ4V0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1711,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a top-rated Station-service, check out Station service Agil METLAOUI located at 8C82+CM4 Station service Agil METLAOUI, C122, Al-Mitlawi. This must-visit spot has a 5.0 rating and is open 24 hours a day. To get there, use these GPS coordinates: 34.32081, 8.40157. For more details, call them at 76 243 108.</t>
+          <t>Station service Agil METLAOUI is a gas station located in 8C82+CM4 Station service Agil METLAOUI, C122, Al-Mitlawi. It's open 24 hours a day and offers various services to its customers. The station is conveniently located near the main road, making it easily accessible for travelers and locals alike. With its convenient location, 24-hour operation, and variety of services, Station service Agil METLAOUI is a valuable asset to the local community.</t>
         </is>
       </c>
     </row>
